--- a/crisscross_kit/crisscross/dna_source_plates/flat_staple_plates/sw_src009_control_max.xlsx
+++ b/crisscross_kit/crisscross/dna_source_plates/flat_staple_plates/sw_src009_control_max.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Documents/Shih_Lab_Postdoc/research_projects/crisscross_code/crisscross_kit/crisscross/dna_source_plates/flat_staple_plates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB22355-EBB6-DE46-AA1E-F4DDD42AE07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="1" r:id="rId1"/>
     <sheet name="2D Layout" sheetId="2" r:id="rId2"/>
     <sheet name="2D Label" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="622">
   <si>
     <t>well</t>
   </si>
@@ -1887,8 +1893,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1965,13 +1971,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2009,7 +2023,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2043,6 +2057,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2077,9 +2092,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2252,21 +2268,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2283,27 +2301,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2317,10 +2335,10 @@
         <v>517</v>
       </c>
       <c r="E6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2334,10 +2352,10 @@
         <v>518</v>
       </c>
       <c r="E7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2351,10 +2369,10 @@
         <v>519</v>
       </c>
       <c r="E8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2368,10 +2386,10 @@
         <v>520</v>
       </c>
       <c r="E9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2385,10 +2403,10 @@
         <v>521</v>
       </c>
       <c r="E10">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2402,10 +2420,10 @@
         <v>522</v>
       </c>
       <c r="E11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2419,10 +2437,10 @@
         <v>523</v>
       </c>
       <c r="E12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2436,10 +2454,10 @@
         <v>524</v>
       </c>
       <c r="E13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2453,10 +2471,10 @@
         <v>525</v>
       </c>
       <c r="E14">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2470,10 +2488,10 @@
         <v>526</v>
       </c>
       <c r="E15">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2487,10 +2505,10 @@
         <v>527</v>
       </c>
       <c r="E16">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2504,10 +2522,10 @@
         <v>528</v>
       </c>
       <c r="E17">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2521,10 +2539,10 @@
         <v>529</v>
       </c>
       <c r="E18">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2538,10 +2556,10 @@
         <v>530</v>
       </c>
       <c r="E19">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2555,10 +2573,10 @@
         <v>531</v>
       </c>
       <c r="E20">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2572,50 +2590,50 @@
         <v>532</v>
       </c>
       <c r="E21">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2629,10 +2647,10 @@
         <v>517</v>
       </c>
       <c r="E30">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2646,10 +2664,10 @@
         <v>518</v>
       </c>
       <c r="E31">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2663,10 +2681,10 @@
         <v>519</v>
       </c>
       <c r="E32">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2680,10 +2698,10 @@
         <v>520</v>
       </c>
       <c r="E33">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2697,10 +2715,10 @@
         <v>521</v>
       </c>
       <c r="E34">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2714,10 +2732,10 @@
         <v>522</v>
       </c>
       <c r="E35">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2731,10 +2749,10 @@
         <v>523</v>
       </c>
       <c r="E36">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2748,10 +2766,10 @@
         <v>524</v>
       </c>
       <c r="E37">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2765,10 +2783,10 @@
         <v>525</v>
       </c>
       <c r="E38">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2782,10 +2800,10 @@
         <v>526</v>
       </c>
       <c r="E39">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2799,10 +2817,10 @@
         <v>527</v>
       </c>
       <c r="E40">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2816,10 +2834,10 @@
         <v>528</v>
       </c>
       <c r="E41">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2833,10 +2851,10 @@
         <v>529</v>
       </c>
       <c r="E42">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2850,10 +2868,10 @@
         <v>530</v>
       </c>
       <c r="E43">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2867,10 +2885,10 @@
         <v>531</v>
       </c>
       <c r="E44">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2884,50 +2902,50 @@
         <v>532</v>
       </c>
       <c r="E45">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2941,10 +2959,10 @@
         <v>517</v>
       </c>
       <c r="E54">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -2958,10 +2976,10 @@
         <v>518</v>
       </c>
       <c r="E55">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2975,10 +2993,10 @@
         <v>519</v>
       </c>
       <c r="E56">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2992,10 +3010,10 @@
         <v>520</v>
       </c>
       <c r="E57">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -3009,10 +3027,10 @@
         <v>521</v>
       </c>
       <c r="E58">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -3026,10 +3044,10 @@
         <v>522</v>
       </c>
       <c r="E59">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -3043,10 +3061,10 @@
         <v>523</v>
       </c>
       <c r="E60">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -3060,10 +3078,10 @@
         <v>524</v>
       </c>
       <c r="E61">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -3077,10 +3095,10 @@
         <v>525</v>
       </c>
       <c r="E62">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -3094,10 +3112,10 @@
         <v>526</v>
       </c>
       <c r="E63">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -3111,10 +3129,10 @@
         <v>527</v>
       </c>
       <c r="E64">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -3128,10 +3146,10 @@
         <v>528</v>
       </c>
       <c r="E65">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -3145,10 +3163,10 @@
         <v>529</v>
       </c>
       <c r="E66">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -3162,10 +3180,10 @@
         <v>530</v>
       </c>
       <c r="E67">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -3179,10 +3197,10 @@
         <v>531</v>
       </c>
       <c r="E68">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -3196,50 +3214,50 @@
         <v>532</v>
       </c>
       <c r="E69">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -3253,10 +3271,10 @@
         <v>517</v>
       </c>
       <c r="E78">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -3270,10 +3288,10 @@
         <v>518</v>
       </c>
       <c r="E79">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -3287,10 +3305,10 @@
         <v>519</v>
       </c>
       <c r="E80">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -3304,10 +3322,10 @@
         <v>520</v>
       </c>
       <c r="E81">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -3321,10 +3339,10 @@
         <v>521</v>
       </c>
       <c r="E82">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -3338,10 +3356,10 @@
         <v>522</v>
       </c>
       <c r="E83">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -3355,10 +3373,10 @@
         <v>523</v>
       </c>
       <c r="E84">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -3372,10 +3390,10 @@
         <v>524</v>
       </c>
       <c r="E85">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -3389,10 +3407,10 @@
         <v>525</v>
       </c>
       <c r="E86">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -3406,10 +3424,10 @@
         <v>526</v>
       </c>
       <c r="E87">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -3423,10 +3441,10 @@
         <v>527</v>
       </c>
       <c r="E88">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -3440,10 +3458,10 @@
         <v>528</v>
       </c>
       <c r="E89">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -3457,10 +3475,10 @@
         <v>529</v>
       </c>
       <c r="E90">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -3474,10 +3492,10 @@
         <v>530</v>
       </c>
       <c r="E91">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -3491,10 +3509,10 @@
         <v>531</v>
       </c>
       <c r="E92">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -3508,50 +3526,50 @@
         <v>532</v>
       </c>
       <c r="E93">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -3565,10 +3583,10 @@
         <v>533</v>
       </c>
       <c r="E102">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -3582,10 +3600,10 @@
         <v>534</v>
       </c>
       <c r="E103">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -3599,10 +3617,10 @@
         <v>535</v>
       </c>
       <c r="E104">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -3616,10 +3634,10 @@
         <v>536</v>
       </c>
       <c r="E105">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -3633,10 +3651,10 @@
         <v>537</v>
       </c>
       <c r="E106">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -3650,10 +3668,10 @@
         <v>538</v>
       </c>
       <c r="E107">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -3667,10 +3685,10 @@
         <v>539</v>
       </c>
       <c r="E108">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -3684,10 +3702,10 @@
         <v>540</v>
       </c>
       <c r="E109">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -3701,10 +3719,10 @@
         <v>541</v>
       </c>
       <c r="E110">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -3718,10 +3736,10 @@
         <v>542</v>
       </c>
       <c r="E111">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -3735,10 +3753,10 @@
         <v>543</v>
       </c>
       <c r="E112">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -3752,10 +3770,10 @@
         <v>544</v>
       </c>
       <c r="E113">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -3769,10 +3787,10 @@
         <v>545</v>
       </c>
       <c r="E114">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -3786,10 +3804,10 @@
         <v>546</v>
       </c>
       <c r="E115">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -3803,10 +3821,10 @@
         <v>547</v>
       </c>
       <c r="E116">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -3820,50 +3838,50 @@
         <v>548</v>
       </c>
       <c r="E117">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -3877,10 +3895,10 @@
         <v>533</v>
       </c>
       <c r="E126">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -3894,10 +3912,10 @@
         <v>534</v>
       </c>
       <c r="E127">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -3911,10 +3929,10 @@
         <v>535</v>
       </c>
       <c r="E128">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -3928,10 +3946,10 @@
         <v>536</v>
       </c>
       <c r="E129">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -3945,10 +3963,10 @@
         <v>537</v>
       </c>
       <c r="E130">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -3962,10 +3980,10 @@
         <v>538</v>
       </c>
       <c r="E131">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -3979,10 +3997,10 @@
         <v>539</v>
       </c>
       <c r="E132">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -3996,10 +4014,10 @@
         <v>540</v>
       </c>
       <c r="E133">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -4013,10 +4031,10 @@
         <v>541</v>
       </c>
       <c r="E134">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -4030,10 +4048,10 @@
         <v>542</v>
       </c>
       <c r="E135">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -4047,10 +4065,10 @@
         <v>543</v>
       </c>
       <c r="E136">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -4064,10 +4082,10 @@
         <v>544</v>
       </c>
       <c r="E137">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -4081,10 +4099,10 @@
         <v>545</v>
       </c>
       <c r="E138">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -4098,10 +4116,10 @@
         <v>546</v>
       </c>
       <c r="E139">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -4115,10 +4133,10 @@
         <v>547</v>
       </c>
       <c r="E140">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -4132,50 +4150,50 @@
         <v>548</v>
       </c>
       <c r="E141">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -4189,10 +4207,10 @@
         <v>533</v>
       </c>
       <c r="E150">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -4206,10 +4224,10 @@
         <v>534</v>
       </c>
       <c r="E151">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -4223,10 +4241,10 @@
         <v>535</v>
       </c>
       <c r="E152">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -4240,10 +4258,10 @@
         <v>536</v>
       </c>
       <c r="E153">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -4257,10 +4275,10 @@
         <v>537</v>
       </c>
       <c r="E154">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -4274,10 +4292,10 @@
         <v>538</v>
       </c>
       <c r="E155">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -4291,10 +4309,10 @@
         <v>539</v>
       </c>
       <c r="E156">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -4308,10 +4326,10 @@
         <v>540</v>
       </c>
       <c r="E157">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -4325,10 +4343,10 @@
         <v>541</v>
       </c>
       <c r="E158">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -4342,10 +4360,10 @@
         <v>542</v>
       </c>
       <c r="E159">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -4359,10 +4377,10 @@
         <v>543</v>
       </c>
       <c r="E160">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -4376,10 +4394,10 @@
         <v>544</v>
       </c>
       <c r="E161">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -4393,10 +4411,10 @@
         <v>545</v>
       </c>
       <c r="E162">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -4410,10 +4428,10 @@
         <v>546</v>
       </c>
       <c r="E163">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -4427,10 +4445,10 @@
         <v>547</v>
       </c>
       <c r="E164">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -4444,50 +4462,50 @@
         <v>548</v>
       </c>
       <c r="E165">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>177</v>
       </c>
@@ -4501,10 +4519,10 @@
         <v>533</v>
       </c>
       <c r="E174">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -4518,10 +4536,10 @@
         <v>534</v>
       </c>
       <c r="E175">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>179</v>
       </c>
@@ -4535,10 +4553,10 @@
         <v>535</v>
       </c>
       <c r="E176">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -4552,10 +4570,10 @@
         <v>536</v>
       </c>
       <c r="E177">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -4569,10 +4587,10 @@
         <v>537</v>
       </c>
       <c r="E178">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>182</v>
       </c>
@@ -4586,10 +4604,10 @@
         <v>538</v>
       </c>
       <c r="E179">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>183</v>
       </c>
@@ -4603,10 +4621,10 @@
         <v>539</v>
       </c>
       <c r="E180">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -4620,10 +4638,10 @@
         <v>540</v>
       </c>
       <c r="E181">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>185</v>
       </c>
@@ -4637,10 +4655,10 @@
         <v>541</v>
       </c>
       <c r="E182">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -4654,10 +4672,10 @@
         <v>542</v>
       </c>
       <c r="E183">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>187</v>
       </c>
@@ -4671,10 +4689,10 @@
         <v>543</v>
       </c>
       <c r="E184">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -4688,10 +4706,10 @@
         <v>544</v>
       </c>
       <c r="E185">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>189</v>
       </c>
@@ -4705,10 +4723,10 @@
         <v>545</v>
       </c>
       <c r="E186">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>190</v>
       </c>
@@ -4722,10 +4740,10 @@
         <v>546</v>
       </c>
       <c r="E187">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -4739,10 +4757,10 @@
         <v>547</v>
       </c>
       <c r="E188">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -4756,50 +4774,50 @@
         <v>548</v>
       </c>
       <c r="E189">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>201</v>
       </c>
@@ -4813,10 +4831,10 @@
         <v>549</v>
       </c>
       <c r="E198">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -4830,10 +4848,10 @@
         <v>550</v>
       </c>
       <c r="E199">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>203</v>
       </c>
@@ -4847,10 +4865,10 @@
         <v>551</v>
       </c>
       <c r="E200">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -4864,10 +4882,10 @@
         <v>552</v>
       </c>
       <c r="E201">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>205</v>
       </c>
@@ -4881,10 +4899,10 @@
         <v>553</v>
       </c>
       <c r="E202">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>206</v>
       </c>
@@ -4898,10 +4916,10 @@
         <v>554</v>
       </c>
       <c r="E203">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -4915,10 +4933,10 @@
         <v>555</v>
       </c>
       <c r="E204">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -4932,10 +4950,10 @@
         <v>556</v>
       </c>
       <c r="E205">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -4949,10 +4967,10 @@
         <v>557</v>
       </c>
       <c r="E206">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -4966,10 +4984,10 @@
         <v>558</v>
       </c>
       <c r="E207">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -4983,10 +5001,10 @@
         <v>559</v>
       </c>
       <c r="E208">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -5000,10 +5018,10 @@
         <v>560</v>
       </c>
       <c r="E209">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -5017,10 +5035,10 @@
         <v>561</v>
       </c>
       <c r="E210">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -5034,10 +5052,10 @@
         <v>562</v>
       </c>
       <c r="E211">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>215</v>
       </c>
@@ -5051,10 +5069,10 @@
         <v>563</v>
       </c>
       <c r="E212">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -5068,50 +5086,50 @@
         <v>564</v>
       </c>
       <c r="E213">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>225</v>
       </c>
@@ -5125,10 +5143,10 @@
         <v>549</v>
       </c>
       <c r="E222">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>226</v>
       </c>
@@ -5142,10 +5160,10 @@
         <v>550</v>
       </c>
       <c r="E223">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>227</v>
       </c>
@@ -5159,10 +5177,10 @@
         <v>551</v>
       </c>
       <c r="E224">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -5176,10 +5194,10 @@
         <v>552</v>
       </c>
       <c r="E225">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>229</v>
       </c>
@@ -5193,10 +5211,10 @@
         <v>553</v>
       </c>
       <c r="E226">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>230</v>
       </c>
@@ -5210,10 +5228,10 @@
         <v>554</v>
       </c>
       <c r="E227">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>231</v>
       </c>
@@ -5227,10 +5245,10 @@
         <v>555</v>
       </c>
       <c r="E228">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>232</v>
       </c>
@@ -5244,10 +5262,10 @@
         <v>556</v>
       </c>
       <c r="E229">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>233</v>
       </c>
@@ -5261,10 +5279,10 @@
         <v>557</v>
       </c>
       <c r="E230">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>234</v>
       </c>
@@ -5278,10 +5296,10 @@
         <v>558</v>
       </c>
       <c r="E231">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>235</v>
       </c>
@@ -5295,10 +5313,10 @@
         <v>559</v>
       </c>
       <c r="E232">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>236</v>
       </c>
@@ -5312,10 +5330,10 @@
         <v>560</v>
       </c>
       <c r="E233">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>237</v>
       </c>
@@ -5329,10 +5347,10 @@
         <v>561</v>
       </c>
       <c r="E234">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>238</v>
       </c>
@@ -5346,10 +5364,10 @@
         <v>562</v>
       </c>
       <c r="E235">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>239</v>
       </c>
@@ -5363,10 +5381,10 @@
         <v>563</v>
       </c>
       <c r="E236">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -5380,50 +5398,50 @@
         <v>564</v>
       </c>
       <c r="E237">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>249</v>
       </c>
@@ -5437,10 +5455,10 @@
         <v>549</v>
       </c>
       <c r="E246">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>250</v>
       </c>
@@ -5454,10 +5472,10 @@
         <v>550</v>
       </c>
       <c r="E247">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>251</v>
       </c>
@@ -5471,10 +5489,10 @@
         <v>551</v>
       </c>
       <c r="E248">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>252</v>
       </c>
@@ -5488,10 +5506,10 @@
         <v>552</v>
       </c>
       <c r="E249">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>253</v>
       </c>
@@ -5505,10 +5523,10 @@
         <v>553</v>
       </c>
       <c r="E250">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>254</v>
       </c>
@@ -5522,10 +5540,10 @@
         <v>554</v>
       </c>
       <c r="E251">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>255</v>
       </c>
@@ -5539,10 +5557,10 @@
         <v>555</v>
       </c>
       <c r="E252">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>256</v>
       </c>
@@ -5556,10 +5574,10 @@
         <v>556</v>
       </c>
       <c r="E253">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>257</v>
       </c>
@@ -5573,10 +5591,10 @@
         <v>557</v>
       </c>
       <c r="E254">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>258</v>
       </c>
@@ -5590,10 +5608,10 @@
         <v>558</v>
       </c>
       <c r="E255">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>259</v>
       </c>
@@ -5607,10 +5625,10 @@
         <v>559</v>
       </c>
       <c r="E256">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>260</v>
       </c>
@@ -5624,10 +5642,10 @@
         <v>560</v>
       </c>
       <c r="E257">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>261</v>
       </c>
@@ -5641,10 +5659,10 @@
         <v>561</v>
       </c>
       <c r="E258">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>262</v>
       </c>
@@ -5658,10 +5676,10 @@
         <v>562</v>
       </c>
       <c r="E259">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>263</v>
       </c>
@@ -5675,10 +5693,10 @@
         <v>563</v>
       </c>
       <c r="E260">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>264</v>
       </c>
@@ -5692,50 +5710,50 @@
         <v>564</v>
       </c>
       <c r="E261">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>273</v>
       </c>
@@ -5749,10 +5767,10 @@
         <v>549</v>
       </c>
       <c r="E270">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>274</v>
       </c>
@@ -5766,10 +5784,10 @@
         <v>550</v>
       </c>
       <c r="E271">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>275</v>
       </c>
@@ -5783,10 +5801,10 @@
         <v>551</v>
       </c>
       <c r="E272">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>276</v>
       </c>
@@ -5800,10 +5818,10 @@
         <v>552</v>
       </c>
       <c r="E273">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>277</v>
       </c>
@@ -5817,10 +5835,10 @@
         <v>553</v>
       </c>
       <c r="E274">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>278</v>
       </c>
@@ -5834,10 +5852,10 @@
         <v>554</v>
       </c>
       <c r="E275">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>279</v>
       </c>
@@ -5851,10 +5869,10 @@
         <v>555</v>
       </c>
       <c r="E276">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>280</v>
       </c>
@@ -5868,10 +5886,10 @@
         <v>556</v>
       </c>
       <c r="E277">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>281</v>
       </c>
@@ -5885,10 +5903,10 @@
         <v>557</v>
       </c>
       <c r="E278">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>282</v>
       </c>
@@ -5902,10 +5920,10 @@
         <v>558</v>
       </c>
       <c r="E279">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>283</v>
       </c>
@@ -5919,10 +5937,10 @@
         <v>559</v>
       </c>
       <c r="E280">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>284</v>
       </c>
@@ -5936,10 +5954,10 @@
         <v>560</v>
       </c>
       <c r="E281">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>285</v>
       </c>
@@ -5953,10 +5971,10 @@
         <v>561</v>
       </c>
       <c r="E282">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>286</v>
       </c>
@@ -5970,10 +5988,10 @@
         <v>562</v>
       </c>
       <c r="E283">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>287</v>
       </c>
@@ -5987,10 +6005,10 @@
         <v>563</v>
       </c>
       <c r="E284">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>288</v>
       </c>
@@ -6004,50 +6022,50 @@
         <v>564</v>
       </c>
       <c r="E285">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>297</v>
       </c>
@@ -6061,10 +6079,10 @@
         <v>565</v>
       </c>
       <c r="E294">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>298</v>
       </c>
@@ -6078,10 +6096,10 @@
         <v>566</v>
       </c>
       <c r="E295">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>299</v>
       </c>
@@ -6095,10 +6113,10 @@
         <v>567</v>
       </c>
       <c r="E296">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>300</v>
       </c>
@@ -6112,10 +6130,10 @@
         <v>568</v>
       </c>
       <c r="E297">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>301</v>
       </c>
@@ -6129,10 +6147,10 @@
         <v>569</v>
       </c>
       <c r="E298">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>302</v>
       </c>
@@ -6146,10 +6164,10 @@
         <v>570</v>
       </c>
       <c r="E299">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>303</v>
       </c>
@@ -6163,10 +6181,10 @@
         <v>571</v>
       </c>
       <c r="E300">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>304</v>
       </c>
@@ -6180,10 +6198,10 @@
         <v>572</v>
       </c>
       <c r="E301">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>305</v>
       </c>
@@ -6197,10 +6215,10 @@
         <v>573</v>
       </c>
       <c r="E302">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>306</v>
       </c>
@@ -6214,10 +6232,10 @@
         <v>574</v>
       </c>
       <c r="E303">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>307</v>
       </c>
@@ -6231,10 +6249,10 @@
         <v>575</v>
       </c>
       <c r="E304">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>308</v>
       </c>
@@ -6248,10 +6266,10 @@
         <v>576</v>
       </c>
       <c r="E305">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>309</v>
       </c>
@@ -6265,10 +6283,10 @@
         <v>577</v>
       </c>
       <c r="E306">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>310</v>
       </c>
@@ -6282,10 +6300,10 @@
         <v>578</v>
       </c>
       <c r="E307">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>311</v>
       </c>
@@ -6299,10 +6317,10 @@
         <v>579</v>
       </c>
       <c r="E308">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>312</v>
       </c>
@@ -6316,50 +6334,50 @@
         <v>580</v>
       </c>
       <c r="E309">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>321</v>
       </c>
@@ -6373,10 +6391,10 @@
         <v>565</v>
       </c>
       <c r="E318">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>322</v>
       </c>
@@ -6390,10 +6408,10 @@
         <v>566</v>
       </c>
       <c r="E319">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>323</v>
       </c>
@@ -6407,10 +6425,10 @@
         <v>567</v>
       </c>
       <c r="E320">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>324</v>
       </c>
@@ -6424,10 +6442,10 @@
         <v>568</v>
       </c>
       <c r="E321">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>325</v>
       </c>
@@ -6441,10 +6459,10 @@
         <v>569</v>
       </c>
       <c r="E322">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>326</v>
       </c>
@@ -6458,10 +6476,10 @@
         <v>570</v>
       </c>
       <c r="E323">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>327</v>
       </c>
@@ -6475,10 +6493,10 @@
         <v>571</v>
       </c>
       <c r="E324">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>328</v>
       </c>
@@ -6492,10 +6510,10 @@
         <v>572</v>
       </c>
       <c r="E325">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>329</v>
       </c>
@@ -6509,10 +6527,10 @@
         <v>573</v>
       </c>
       <c r="E326">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>330</v>
       </c>
@@ -6526,10 +6544,10 @@
         <v>574</v>
       </c>
       <c r="E327">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>331</v>
       </c>
@@ -6543,10 +6561,10 @@
         <v>575</v>
       </c>
       <c r="E328">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>332</v>
       </c>
@@ -6560,10 +6578,10 @@
         <v>576</v>
       </c>
       <c r="E329">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>333</v>
       </c>
@@ -6577,10 +6595,10 @@
         <v>577</v>
       </c>
       <c r="E330">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>334</v>
       </c>
@@ -6594,10 +6612,10 @@
         <v>578</v>
       </c>
       <c r="E331">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>335</v>
       </c>
@@ -6611,10 +6629,10 @@
         <v>579</v>
       </c>
       <c r="E332">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>336</v>
       </c>
@@ -6628,50 +6646,50 @@
         <v>580</v>
       </c>
       <c r="E333">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>345</v>
       </c>
@@ -6685,10 +6703,10 @@
         <v>565</v>
       </c>
       <c r="E342">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>346</v>
       </c>
@@ -6702,10 +6720,10 @@
         <v>566</v>
       </c>
       <c r="E343">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>347</v>
       </c>
@@ -6719,10 +6737,10 @@
         <v>567</v>
       </c>
       <c r="E344">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>348</v>
       </c>
@@ -6736,10 +6754,10 @@
         <v>568</v>
       </c>
       <c r="E345">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>349</v>
       </c>
@@ -6753,10 +6771,10 @@
         <v>569</v>
       </c>
       <c r="E346">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>350</v>
       </c>
@@ -6770,10 +6788,10 @@
         <v>570</v>
       </c>
       <c r="E347">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>351</v>
       </c>
@@ -6787,10 +6805,10 @@
         <v>571</v>
       </c>
       <c r="E348">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>352</v>
       </c>
@@ -6804,10 +6822,10 @@
         <v>572</v>
       </c>
       <c r="E349">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>353</v>
       </c>
@@ -6821,10 +6839,10 @@
         <v>573</v>
       </c>
       <c r="E350">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>354</v>
       </c>
@@ -6838,10 +6856,10 @@
         <v>574</v>
       </c>
       <c r="E351">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>355</v>
       </c>
@@ -6855,10 +6873,10 @@
         <v>575</v>
       </c>
       <c r="E352">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>356</v>
       </c>
@@ -6872,10 +6890,10 @@
         <v>576</v>
       </c>
       <c r="E353">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>357</v>
       </c>
@@ -6889,10 +6907,10 @@
         <v>577</v>
       </c>
       <c r="E354">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>358</v>
       </c>
@@ -6906,10 +6924,10 @@
         <v>578</v>
       </c>
       <c r="E355">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>359</v>
       </c>
@@ -6923,10 +6941,10 @@
         <v>579</v>
       </c>
       <c r="E356">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>360</v>
       </c>
@@ -6940,50 +6958,50 @@
         <v>580</v>
       </c>
       <c r="E357">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>369</v>
       </c>
@@ -6997,10 +7015,10 @@
         <v>565</v>
       </c>
       <c r="E366">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>370</v>
       </c>
@@ -7014,10 +7032,10 @@
         <v>566</v>
       </c>
       <c r="E367">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>371</v>
       </c>
@@ -7031,10 +7049,10 @@
         <v>567</v>
       </c>
       <c r="E368">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>372</v>
       </c>
@@ -7048,10 +7066,10 @@
         <v>568</v>
       </c>
       <c r="E369">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>373</v>
       </c>
@@ -7065,10 +7083,10 @@
         <v>569</v>
       </c>
       <c r="E370">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>374</v>
       </c>
@@ -7082,10 +7100,10 @@
         <v>570</v>
       </c>
       <c r="E371">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>375</v>
       </c>
@@ -7099,10 +7117,10 @@
         <v>571</v>
       </c>
       <c r="E372">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>376</v>
       </c>
@@ -7116,10 +7134,10 @@
         <v>572</v>
       </c>
       <c r="E373">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>377</v>
       </c>
@@ -7133,10 +7151,10 @@
         <v>573</v>
       </c>
       <c r="E374">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>378</v>
       </c>
@@ -7150,10 +7168,10 @@
         <v>574</v>
       </c>
       <c r="E375">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>379</v>
       </c>
@@ -7167,10 +7185,10 @@
         <v>575</v>
       </c>
       <c r="E376">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>380</v>
       </c>
@@ -7184,10 +7202,10 @@
         <v>576</v>
       </c>
       <c r="E377">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>381</v>
       </c>
@@ -7201,10 +7219,10 @@
         <v>577</v>
       </c>
       <c r="E378">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>382</v>
       </c>
@@ -7218,10 +7236,10 @@
         <v>578</v>
       </c>
       <c r="E379">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>383</v>
       </c>
@@ -7235,10 +7253,10 @@
         <v>579</v>
       </c>
       <c r="E380">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>384</v>
       </c>
@@ -7252,25 +7270,25 @@
         <v>580</v>
       </c>
       <c r="E381">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>388</v>
       </c>
@@ -7281,19 +7299,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="20" width="27.7109375" customWidth="1"/>
-    <col min="21" max="24" width="5.7109375" customWidth="1"/>
+    <col min="1" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="20" width="27.6640625" customWidth="1"/>
+    <col min="21" max="24" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>605</v>
       </c>
@@ -7370,7 +7388,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="2" customFormat="1">
+    <row r="2" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>606</v>
       </c>
@@ -7423,7 +7441,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>607</v>
       </c>
@@ -7476,7 +7494,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>608</v>
       </c>
@@ -7529,7 +7547,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>609</v>
       </c>
@@ -7582,7 +7600,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="2" customFormat="1">
+    <row r="6" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>610</v>
       </c>
@@ -7635,7 +7653,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>611</v>
       </c>
@@ -7688,7 +7706,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="2" customFormat="1">
+    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>612</v>
       </c>
@@ -7741,7 +7759,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>613</v>
       </c>
@@ -7794,7 +7812,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="2" customFormat="1">
+    <row r="10" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>614</v>
       </c>
@@ -7847,7 +7865,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>615</v>
       </c>
@@ -7900,7 +7918,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="2" customFormat="1">
+    <row r="12" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>616</v>
       </c>
@@ -7953,7 +7971,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>617</v>
       </c>
@@ -8006,7 +8024,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="2" customFormat="1">
+    <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>618</v>
       </c>
@@ -8059,7 +8077,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>619</v>
       </c>
@@ -8112,7 +8130,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="2" customFormat="1">
+    <row r="16" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>620</v>
       </c>
@@ -8165,7 +8183,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>621</v>
       </c>
@@ -8224,20 +8242,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="20" width="4.7109375" customWidth="1"/>
-    <col min="21" max="24" width="5.7109375" customWidth="1"/>
+    <col min="1" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="9" width="3.6640625" customWidth="1"/>
+    <col min="10" max="20" width="4.6640625" customWidth="1"/>
+    <col min="21" max="24" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>605</v>
       </c>
@@ -8314,7 +8332,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>606</v>
       </c>
@@ -8367,7 +8385,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>607</v>
       </c>
@@ -8420,7 +8438,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>608</v>
       </c>
@@ -8473,7 +8491,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>609</v>
       </c>
@@ -8526,7 +8544,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>610</v>
       </c>
@@ -8579,7 +8597,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>611</v>
       </c>
@@ -8632,7 +8650,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>612</v>
       </c>
@@ -8685,7 +8703,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>613</v>
       </c>
@@ -8738,7 +8756,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>614</v>
       </c>
@@ -8791,7 +8809,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>615</v>
       </c>
@@ -8844,7 +8862,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>616</v>
       </c>
@@ -8897,7 +8915,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>617</v>
       </c>
@@ -8950,7 +8968,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>618</v>
       </c>
@@ -9003,7 +9021,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>619</v>
       </c>
@@ -9056,7 +9074,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>620</v>
       </c>
@@ -9109,7 +9127,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>621</v>
       </c>
